--- a/Template/SSP_Template.xlsx
+++ b/Template/SSP_Template.xlsx
@@ -25,26 +25,17 @@
     <style:style style:name="co1" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="2.108cm"/>
     </style:style>
-    <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.258cm"/>
-    </style:style>
     <style:style style:name="ro1" style:family="table-row">
-      <style:table-row-properties style:row-height="0.512cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro2" style:family="table-row">
       <style:table-row-properties style:row-height="0.512cm" fo:break-before="auto" style:use-optimal-row-height="false"/>
     </style:style>
     <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="1.023cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="1cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ro4" style:family="table-row">
-      <style:table-row-properties style:row-height="1.535cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro5" style:family="table-row">
-      <style:table-row-properties style:row-height="0.487cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro6" style:family="table-row">
-      <style:table-row-properties style:row-height="0.452cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="1.473cm" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="PageStyle_5f_NewSpec_5f_Template">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
@@ -54,9 +45,6 @@
     </style:style>
     <style:style style:name="ta3" style:family="table" style:master-page-name="PageStyle_5f_SINGLE_5f_Template">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
-    <style:style style:name="ta4" style:family="table" style:master-page-name="Default">
-      <style:table-properties table:display="true" style:writing-mode="rl-tb"/>
     </style:style>
     <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
@@ -66,24 +54,24 @@
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:rotation-align="none"/>
     </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="lr-tb"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:rotation-align="none"/>
-      <style:paragraph-properties style:writing-mode="lr-tb"/>
     </style:style>
     <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="0.74pt solid #000000" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties fo:text-align="center" css3t:text-justify="auto" fo:margin-left="0cm" style:writing-mode="lr-tb"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Calibri" fo:font-size="11pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="11pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="11pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:rotation-align="none"/>
+      <style:paragraph-properties style:writing-mode="lr-tb"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -93,13 +81,13 @@
       </table:calculation-settings>
       <table:table table:name="NewSpec_Template" table:style-name="ta1">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="64" table:default-cell-style-name="ce2"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="11" table:number-rows-spanned="1">
             <text:p>SSP</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="10" table:style-name="ce1"/>
-          <table:table-cell table:number-columns-repeated="1013"/>
+          <table:table-cell table:number-columns-repeated="53"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
@@ -111,60 +99,60 @@
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>Set</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>SMV Tag File Name</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>SMV No Tag File Name</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>Spec of Interest</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>Net Validity</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>Tags</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:style-name="ce3"/>
+          <table:covered-table-cell table:style-name="ce4"/>
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>No Tags</text:p>
           </table:table-cell>
           <table:covered-table-cell table:style-name="ce1"/>
-          <table:table-cell table:number-columns-repeated="1013"/>
+          <table:table-cell table:number-columns-repeated="53"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce1"/>
-          <table:covered-table-cell table:number-columns-repeated="4" table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:covered-table-cell table:number-columns-repeated="4" table:style-name="ce4"/>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1013"/>
+          <table:table-cell table:number-columns-repeated="53"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048572">
-          <table:table-cell table:number-columns-repeated="1024"/>
+          <table:table-cell table:number-columns-repeated="64"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
+          <table:table-cell table:number-columns-repeated="64"/>
         </table:table-row>
       </table:table>
       <table:table table:name="ALL_Template" table:style-name="ta2">
-        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="64" table:default-cell-style-name="ce2"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="13" table:number-rows-spanned="1">
             <text:p>SSP</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="12" table:style-name="ce1"/>
-          <table:table-cell table:number-columns-repeated="1011"/>
+          <table:table-cell table:number-columns-repeated="51"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
@@ -176,67 +164,67 @@
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>Set</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>SMV Tag File Name</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>SMV No Tag File Name</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
             <text:p>Tags</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce3"/>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce4"/>
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="4" table:number-rows-spanned="1">
             <text:p>No Tags</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce1"/>
-          <table:table-cell table:number-columns-repeated="1011"/>
+          <table:table-cell table:number-columns-repeated="51"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
           <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce1"/>
-          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:covered-table-cell table:number-columns-repeated="2" table:style-name="ce4"/>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1011"/>
+          <table:table-cell table:number-columns-repeated="51"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048572">
-          <table:table-cell table:number-columns-repeated="1024"/>
+          <table:table-cell table:number-columns-repeated="64"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell table:number-columns-repeated="1024"/>
+          <table:table-cell table:number-columns-repeated="64"/>
         </table:table-row>
       </table:table>
       <table:table table:name="SINGLE_Template" table:style-name="ta3">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co1" table:number-columns-repeated="1024" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="64" table:default-cell-style-name="ce2"/>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="19" table:number-rows-spanned="1">
             <text:p>SSP</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="18" table:style-name="ce1"/>
-          <table:table-cell table:number-columns-repeated="1005"/>
+          <table:table-cell table:number-columns-repeated="45"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
@@ -248,128 +236,122 @@
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>Set</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>SMV Tag File Name</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>SMV No Tag File Name</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>Output of Interest</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
             <text:p>Path Exists</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
             <text:p>Tags</text:p>
           </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce3"/>
+          <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce4"/>
           <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="6" table:number-rows-spanned="1">
             <text:p>No Tags</text:p>
           </table:table-cell>
           <table:covered-table-cell table:number-columns-repeated="5" table:style-name="ce1"/>
-          <table:table-cell table:number-columns-repeated="1005"/>
+          <table:table-cell table:number-columns-repeated="45"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
           <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce1"/>
-          <table:covered-table-cell table:number-columns-repeated="4" table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:covered-table-cell table:number-columns-repeated="4" table:style-name="ce4"/>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Result</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Result</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Result</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>LTL Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Output File</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Result</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>CTL Runtime (ms)</text:p>
           </table:table-cell>
-          <table:table-cell table:number-columns-repeated="1005"/>
+          <table:table-cell table:number-columns-repeated="45"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="1048572">
+          <table:table-cell table:number-columns-repeated="64"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:number-columns-repeated="64"/>
+        </table:table-row>
+      </table:table>
+      <table:table table:name="Prism_Template" table:style-name="ta3">
+        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="64" table:default-cell-style-name="ce2"/>
+        <table:table-column table:style-name="co1" table:number-columns-repeated="960" table:default-cell-style-name="Default"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="1">
+            <text:p>SSP</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce5"/>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+            <text:p>ID</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+            <text:p>k</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce5" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+            <text:p>Set</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+            <text:p>SMV No Tag File Name</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+            <text:p>Output of Interest</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+            <text:p>Path Exists</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
+            <text:p>Result</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce5"/>
+          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce6"/>
+          <table:covered-table-cell table:style-name="ce7"/>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro1" table:number-rows-repeated="1048572">
           <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
           <table:table-cell table:number-columns-repeated="1024"/>
-        </table:table-row>
-      </table:table>
-      <table:table table:name="Prism" table:style-name="ta4">
-        <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:number-columns-repeated="7" table:default-cell-style-name="ce5"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="Default"/>
-        <table:table-column table:style-name="co2" table:number-columns-repeated="11" table:default-cell-style-name="ce5"/>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="7" table:number-rows-spanned="1">
-            <text:p>SSP</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:number-columns-repeated="6" table:style-name="ce4"/>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:number-columns-repeated="11"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
-            <text:p>ID</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
-            <text:p>k</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
-            <text:p>Set</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
-            <text:p>SMV No Tag File Name</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
-            <text:p>Output of Interest</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
-            <text:p>Path Exists</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string" table:number-columns-spanned="1" table:number-rows-spanned="2">
-            <text:p>Result</text:p>
-          </table:table-cell>
-          <table:table-cell table:number-columns-repeated="12"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce4"/>
-          <table:covered-table-cell table:number-columns-repeated="3" table:style-name="ce6"/>
-          <table:covered-table-cell/>
-          <table:table-cell table:number-columns-repeated="12"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:number-columns-repeated="11"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:number-columns-repeated="7"/>
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:number-columns-repeated="11"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -384,9 +366,9 @@
     <meta:creation-date>2020-03-31T10:48:42</meta:creation-date>
     <meta:initial-creator>Michelle Aluf-Medina</meta:initial-creator>
     <dc:language>en</dc:language>
-    <dc:date>2020-11-29T13:19:52.835135295</dc:date>
-    <meta:editing-cycles>2</meta:editing-cycles>
-    <meta:editing-duration>PT12M19S</meta:editing-duration>
+    <dc:date>2020-11-29T13:27:41.807591591</dc:date>
+    <meta:editing-cycles>4</meta:editing-cycles>
+    <meta:editing-duration>PT13M48S</meta:editing-duration>
     <meta:generator>LibreOffice/6.4.6.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
     <meta:document-statistic meta:table-count="4" meta:cell-count="60" meta:object-count="0"/>
     <meta:user-defined meta:name="AppVersion">16.0300</meta:user-defined>
@@ -406,8 +388,8 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">40049</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">2557</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">14754</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">1485</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
@@ -448,9 +430,9 @@
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
-            <config:config-item-map-entry config:name="Prism">
-              <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
+            <config:config-item-map-entry config:name="Prism_Template">
+              <config:config-item config:name="CursorPositionX" config:type="int">13</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">7</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -485,7 +467,7 @@
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">Prism</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">Prism_Template</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1789</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
@@ -523,7 +505,7 @@
       <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary"/>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kwH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAtAAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCmNvbGxhdGU9ZmFsc2UKbWFyZ2luZGFqdXN0bWVudD0wLDAsMCwwCmNvbG9yZGVwdGg9MjQKcHNsZXZlbD0wCnBkZmRldmljZT0xCmNvbG9yZGV2aWNlPTAKUFBEQ29udGV4RGF0YQpQYWdlU2l6ZTpBNAAAEgBDT01QQVRfRFVQTEVYX01PREUPAER1cGxleE1vZGU6Ok9mZg==</config:config-item>
       <config:config-item config:name="RasterResolutionX" config:type="int">1000</config:config-item>
       <config:config-item config:name="SyntaxStringRef" config:type="short">2</config:config-item>
       <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
@@ -531,12 +513,21 @@
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
       <config:config-item config:name="RasterSubdivisionX" config:type="int">1</config:config-item>
       <config:config-item config:name="IsRasterAxisSynchronized" config:type="boolean">true</config:config-item>
+      <config:config-item-map-indexed config:name="ForbiddenCharacters">
+        <config:config-item-map-entry>
+          <config:config-item config:name="Language" config:type="string">en</config:config-item>
+          <config:config-item config:name="Country" config:type="string">US</config:config-item>
+          <config:config-item config:name="Variant" config:type="string"/>
+          <config:config-item config:name="BeginLine" config:type="string"/>
+          <config:config-item config:name="EndLine" config:type="string"/>
+        </config:config-item-map-entry>
+      </config:config-item-map-indexed>
       <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
       <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
       <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
       <config:config-item config:name="SaveThumbnail" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string"/>
+      <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item config:name="PrinterPaperFromSetup" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
@@ -568,69 +559,69 @@
     <number:number-style style:name="N0">
       <number:number number:min-integer-digits="1"/>
     </number:number-style>
-    <number:number-style style:name="N112P0" style:volatile="true">
-      <number:text>₪ </number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N112">
-      <number:text>₪ -</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N112P0"/>
-    </number:number-style>
     <number:number-style style:name="N113P0" style:volatile="true">
       <number:text>₪ </number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
     <number:number-style style:name="N113">
+      <number:text>₪ -</number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N113P0"/>
+    </number:number-style>
+    <number:number-style style:name="N114P0" style:volatile="true">
+      <number:text>₪ </number:text>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N114">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>₪ -</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N113P0"/>
-    </number:number-style>
-    <number:number-style style:name="N114P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N114P0"/>
+    </number:number-style>
+    <number:number-style style:name="N116P0" style:volatile="true">
       <number:text>₪ </number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N114">
+    <number:number-style style:name="N116">
       <number:text>₪ -</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N114P0"/>
-    </number:number-style>
-    <number:number-style style:name="N115P0" style:volatile="true">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N116P0"/>
+    </number:number-style>
+    <number:number-style style:name="N117P0" style:volatile="true">
       <number:text>₪ </number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
-    <number:number-style style:name="N115">
+    <number:number-style style:name="N117">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>₪ -</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N115P0"/>
-    </number:number-style>
-    <number:date-style style:name="N116">
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N117P0"/>
+    </number:number-style>
+    <number:date-style style:name="N118">
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:date-style style:name="N117">
+    <number:date-style style:name="N119">
       <number:day number:style="long"/>
       <number:text>-</number:text>
       <number:month number:textual="true"/>
     </number:date-style>
-    <number:date-style style:name="N118">
+    <number:date-style style:name="N120">
       <number:month number:textual="true"/>
       <number:text>-</number:text>
       <number:year/>
     </number:date-style>
-    <number:time-style style:name="N119">
+    <number:time-style style:name="N121">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:time-style style:name="N120">
+    <number:time-style style:name="N122">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
@@ -639,7 +630,7 @@
       <number:text> </number:text>
       <number:am-pm/>
     </number:time-style>
-    <number:date-style style:name="N121">
+    <number:date-style style:name="N123">
       <number:day number:style="long"/>
       <number:text>/</number:text>
       <number:month number:style="long"/>
@@ -650,166 +641,166 @@
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
     </number:date-style>
-    <number:number-style style:name="N122P0" style:volatile="true">
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N122">
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N122P0"/>
-    </number:number-style>
-    <number:number-style style:name="N123P0" style:volatile="true">
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-    </number:number-style>
-    <number:number-style style:name="N123">
-      <style:text-properties fo:color="#ff0000"/>
-      <number:text>-</number:text>
-      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
-      <style:map style:condition="value()&gt;=0" style:apply-style-name="N123P0"/>
-    </number:number-style>
     <number:number-style style:name="N124P0" style:volatile="true">
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
     <number:number-style style:name="N124">
       <number:text>-</number:text>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N124P0"/>
     </number:number-style>
     <number:number-style style:name="N125P0" style:volatile="true">
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
     </number:number-style>
     <number:number-style style:name="N125">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
-      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N125P0"/>
     </number:number-style>
     <number:number-style style:name="N126P0" style:volatile="true">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N126">
+      <number:text>-</number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N126P0"/>
+    </number:number-style>
+    <number:number-style style:name="N127P0" style:volatile="true">
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+    </number:number-style>
+    <number:number-style style:name="N127">
+      <style:text-properties fo:color="#ff0000"/>
+      <number:text>-</number:text>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <style:map style:condition="value()&gt;=0" style:apply-style-name="N127P0"/>
+    </number:number-style>
+    <number:number-style style:name="N131P0" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N126P1" style:volatile="true">
+    <number:number-style style:name="N131P1" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N126P2" style:volatile="true">
+    <number:number-style style:name="N131P2" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>- </number:text>
     </number:number-style>
-    <number:text-style style:name="N126">
+    <number:text-style style:name="N131">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N126P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N126P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N126P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N131P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N131P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N131P2"/>
     </number:text-style>
-    <number:number-style style:name="N127P0" style:volatile="true">
+    <number:number-style style:name="N135P0" style:volatile="true">
       <loext:text> ₪ </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N127P1" style:volatile="true">
+    <number:number-style style:name="N135P1" style:volatile="true">
       <loext:text> ₪ </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N127P2" style:volatile="true">
+    <number:number-style style:name="N135P2" style:volatile="true">
       <loext:text> ₪ </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>- </number:text>
     </number:number-style>
-    <number:text-style style:name="N127">
+    <number:text-style style:name="N135">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N127P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N127P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N127P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N135P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N135P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N135P2"/>
     </number:text-style>
-    <number:number-style style:name="N128P0" style:volatile="true">
+    <number:number-style style:name="N139P0" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N128P1" style:volatile="true">
+    <number:number-style style:name="N139P1" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N128P2" style:volatile="true">
+    <number:number-style style:name="N139P2" style:volatile="true">
       <loext:text> </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N128">
+    <number:text-style style:name="N139">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N128P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N128P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N128P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N139P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N139P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N139P2"/>
     </number:text-style>
-    <number:number-style style:name="N129P0" style:volatile="true">
+    <number:number-style style:name="N143P0" style:volatile="true">
       <loext:text> ₪ </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N129P1" style:volatile="true">
+    <number:number-style style:name="N143P1" style:volatile="true">
       <loext:text> ₪ </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:number-style style:name="N129P2" style:volatile="true">
+    <number:number-style style:name="N143P2" style:volatile="true">
       <loext:text> ₪ </loext:text>
       <loext:fill-character> </loext:fill-character>
       <number:text>-</number:text>
       <number:number number:decimal-places="0" loext:min-decimal-places="0" number:min-integer-digits="0"/>
       <number:text> </number:text>
     </number:number-style>
-    <number:text-style style:name="N129">
+    <number:text-style style:name="N143">
       <number:text> </number:text>
       <number:text-content/>
       <number:text> </number:text>
-      <style:map style:condition="value()&gt;0" style:apply-style-name="N129P0"/>
-      <style:map style:condition="value()&lt;0" style:apply-style-name="N129P1"/>
-      <style:map style:condition="value()=0" style:apply-style-name="N129P2"/>
+      <style:map style:condition="value()&gt;0" style:apply-style-name="N143P0"/>
+      <style:map style:condition="value()&lt;0" style:apply-style-name="N143P1"/>
+      <style:map style:condition="value()=0" style:apply-style-name="N143P2"/>
     </number:text-style>
-    <number:time-style style:name="N130">
+    <number:time-style style:name="N144">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N131" number:truncate-on-overflow="false">
+    <number:time-style style:name="N145" number:truncate-on-overflow="false">
       <number:hours/>
       <number:text>:</number:text>
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long"/>
     </number:time-style>
-    <number:time-style style:name="N132">
+    <number:time-style style:name="N146">
       <number:minutes number:style="long"/>
       <number:text>:</number:text>
       <number:seconds number:style="long" number:decimal-places="1"/>
     </number:time-style>
-    <number:number-style style:name="N133">
+    <number:number-style style:name="N147">
       <number:scientific-number number:decimal-places="1" loext:min-decimal-places="1" number:min-integer-digits="1" number:min-exponent-digits="1" loext:exponent-interval="3" loext:forced-exponent-sign="true"/>
     </number:number-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -935,7 +926,7 @@
           <text:p>
             <text:date style:data-style-name="N2" text:date-value="2020-11-29">00/00/0000</text:date>
             , 
-            <text:time>00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="13:26:11.253267086">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>

--- a/Template/SSP_Template.xlsx
+++ b/Template/SSP_Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t xml:space="preserve">SSP</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reachable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilities</t>
   </si>
   <si>
     <t xml:space="preserve">Unreachable</t>
@@ -104,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,12 +129,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,10 +199,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -235,7 +228,7 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -338,7 +331,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -449,7 +442,7 @@
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -589,7 +582,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -599,7 +592,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="3" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="4" width="8.57"/>
   </cols>
   <sheetData>
@@ -614,7 +608,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -654,12 +648,14 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -683,10 +679,10 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -720,8 +716,8 @@
       <c r="Y13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -730,6 +726,7 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Template/SSP_Template.xlsx
+++ b/Template/SSP_Template.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewSpec_Template" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ALL_Template" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="SINGLE_Template" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Prism_Template" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t xml:space="preserve">SSP</t>
   </si>
@@ -82,6 +83,21 @@
   </si>
   <si>
     <t xml:space="preserve">CTL Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prism NT File Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path Exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reachable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unreachable</t>
   </si>
 </sst>
 </file>
@@ -164,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,20 +193,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -200,12 +228,9 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -220,7 +245,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -251,7 +276,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -296,7 +321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -306,12 +331,9 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -328,7 +350,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -357,7 +379,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -410,22 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +467,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,7 +506,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -553,4 +572,168 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="3" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="4" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Template/SSP_Template.xlsx
+++ b/Template/SSP_Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t xml:space="preserve">SSP</t>
   </si>
@@ -91,13 +91,22 @@
     <t xml:space="preserve">Path Exist</t>
   </si>
   <si>
-    <t xml:space="preserve">Reachable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unreachable</t>
+    <t xml:space="preserve">Reachable with mu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unreachable with mu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilities with mu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reachable with mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unreachable with mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilities with mu</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,10 +208,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -225,7 +230,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="I7:I15 G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,7 +333,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="I7:I15 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,7 +444,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="I7:I15 F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -579,10 +584,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,8 +598,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.23"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="13.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="4" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,9 +615,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -654,9 +660,15 @@
       <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -681,9 +693,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -699,7 +711,15 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -715,9 +735,11 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -727,6 +749,9 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Template/SSP_Template.xlsx
+++ b/Template/SSP_Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t xml:space="preserve">SSP</t>
   </si>
@@ -230,7 +230,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="I7:I15 G4"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,7 +333,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="I7:I15 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="I7:I15 F20"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7:I15"/>
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -598,9 +598,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="13.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="4" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,8 +621,8 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -661,16 +664,20 @@
         <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -696,8 +703,8 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -738,8 +745,8 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -752,6 +759,8 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
